--- a/data/xlsx/Tutorial.xlsx
+++ b/data/xlsx/Tutorial.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -15761,7 +15761,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>TUTID_活動記録の館</t>
+          <t>TUTID_シルバーカード</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -15785,446 +15785,1094 @@
       <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr">
         <is>
+          <t>MID_TUT_BMAP_SilverCard_0</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>MID_TUT_BMAP_SilverCard_TITLE</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>BMAP_SILVERCARD</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>2</v>
+      </c>
+      <c r="F538" t="n">
+        <v>2</v>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="n">
+        <v>50</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>TUTID_紋章士チキ</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_0</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_TITLE</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>GOD_TIKI</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>1</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="n">
+        <v>20</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_1</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_TITLE</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_2</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_TITLE</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0</v>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_3</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_TITLE</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="n">
+        <v>0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0</v>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_4</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_TIKI_TITLE</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0</v>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>TUTID_紋章士エーデルガルト</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="n">
+        <v>0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_0</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>GOD_EDELGARD</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>1</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="n">
+        <v>26</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_1</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="n">
+        <v>0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_2</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="n">
+        <v>0</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0</v>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_3</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="n">
+        <v>0</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_4</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="n">
+        <v>0</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0</v>
+      </c>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>TUTID_神竜ワールドマップ</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_GOD_0</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_GOD_TITLE</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>GMAP_GOD</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>3</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2</v>
+      </c>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="n">
+        <v>10</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_GOD_1</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_GOD_TITLE</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="n">
+        <v>0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>TUTID_回想戦</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="n">
+        <v>0</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0</v>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_0</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>GMAP_RECOLLECTION_BATTLE</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>3</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2</v>
+      </c>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="n">
+        <v>12</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_1</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="n">
+        <v>0</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_2</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="n">
+        <v>0</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>TUTID_活動記録の館</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="n">
+        <v>0</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" t="inlineStr">
+        <is>
           <t>可在活动记录馆
 查看及编辑“神龙战历卡”。</t>
         </is>
       </c>
-      <c r="C538" t="inlineStr">
+      <c r="C559" t="inlineStr">
         <is>
           <t>活动记录馆</t>
         </is>
       </c>
-      <c r="D538" t="inlineStr">
+      <c r="D559" t="inlineStr">
         <is>
           <t>HUB_RECORD_HALL</t>
         </is>
       </c>
-      <c r="E538" t="n">
+      <c r="E559" t="n">
         <v>2</v>
       </c>
-      <c r="F538" t="n">
+      <c r="F559" t="n">
         <v>2</v>
       </c>
-      <c r="G538" t="inlineStr"/>
-      <c r="H538" t="n">
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="n">
         <v>42</v>
       </c>
-      <c r="I538" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr"/>
-      <c r="B539" t="inlineStr">
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr">
         <is>
           <t>在据点菜单的“伙伴”
 也可执行相同操作。
 （只能在索拉涅尔的室外印制风景）</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr">
+      <c r="C560" t="inlineStr">
         <is>
           <t>活动记录馆</t>
         </is>
       </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="n">
-        <v>0</v>
-      </c>
-      <c r="F539" t="n">
-        <v>0</v>
-      </c>
-      <c r="G539" t="inlineStr"/>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
         <is>
           <t>TUTID_戦歴カード</t>
         </is>
       </c>
-      <c r="B540" t="inlineStr"/>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="n">
-        <v>0</v>
-      </c>
-      <c r="F540" t="n">
-        <v>0</v>
-      </c>
-      <c r="G540" t="inlineStr"/>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr"/>
-      <c r="B541" t="inlineStr">
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr">
         <is>
           <t>能够记录到目前为止的游玩记录，
 以及自己简历的卡片。</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr">
+      <c r="C562" t="inlineStr">
         <is>
           <t>神龙战历卡</t>
         </is>
       </c>
-      <c r="D541" t="inlineStr">
+      <c r="D562" t="inlineStr">
         <is>
           <t>HUB_PROFILE</t>
         </is>
       </c>
-      <c r="E541" t="n">
+      <c r="E562" t="n">
         <v>2</v>
       </c>
-      <c r="F541" t="n">
+      <c r="F562" t="n">
         <v>2</v>
       </c>
-      <c r="G541" t="inlineStr"/>
-      <c r="H541" t="n">
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="n">
         <v>42</v>
       </c>
-      <c r="I541" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr"/>
-      <c r="B542" t="inlineStr">
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr">
         <is>
           <t>只要使用通信功能，
 即可向其他玩家公开自己的战历卡，
 或是获得其他玩家的战历卡。</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr">
+      <c r="C563" t="inlineStr">
         <is>
           <t>神龙战历卡</t>
         </is>
       </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="n">
-        <v>0</v>
-      </c>
-      <c r="F542" t="n">
-        <v>0</v>
-      </c>
-      <c r="G542" t="inlineStr"/>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="n">
+        <v>0</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
         <is>
           <t>TUTID_戦歴カード編集</t>
         </is>
       </c>
-      <c r="B543" t="inlineStr"/>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="n">
-        <v>0</v>
-      </c>
-      <c r="F543" t="n">
-        <v>0</v>
-      </c>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr"/>
-      <c r="B544" t="inlineStr">
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="n">
+        <v>0</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0</v>
+      </c>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr">
         <is>
           <t>可在“个人卡片”编辑自己的战历卡。</t>
         </is>
       </c>
-      <c r="C544" t="inlineStr">
+      <c r="C565" t="inlineStr">
         <is>
           <t>编辑战历卡</t>
         </is>
       </c>
-      <c r="D544" t="inlineStr">
+      <c r="D565" t="inlineStr">
         <is>
           <t>HUB_PROFILE_EDIT</t>
         </is>
       </c>
-      <c r="E544" t="n">
+      <c r="E565" t="n">
         <v>2</v>
       </c>
-      <c r="F544" t="n">
+      <c r="F565" t="n">
         <v>2</v>
       </c>
-      <c r="G544" t="inlineStr"/>
-      <c r="H544" t="n">
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="n">
         <v>43</v>
       </c>
-      <c r="I544" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr"/>
-      <c r="B545" t="inlineStr">
+      <c r="I565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr">
         <is>
           <t>持续游玩以满足条件，
 能够选择的词语及素材就会增加。</t>
         </is>
       </c>
-      <c r="C545" t="inlineStr">
+      <c r="C566" t="inlineStr">
         <is>
           <t>编辑战历卡</t>
         </is>
       </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="n">
-        <v>0</v>
-      </c>
-      <c r="F545" t="n">
-        <v>0</v>
-      </c>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
         <is>
           <t>TUTID_戦歴カード撮影</t>
         </is>
       </c>
-      <c r="B546" t="inlineStr"/>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="n">
-        <v>0</v>
-      </c>
-      <c r="F546" t="n">
-        <v>0</v>
-      </c>
-      <c r="G546" t="inlineStr"/>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr"/>
-      <c r="B547" t="inlineStr">
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr">
         <is>
           <t>可以印制（拍摄）要显示在战历卡上的图片。</t>
         </is>
       </c>
-      <c r="C547" t="inlineStr">
+      <c r="C568" t="inlineStr">
         <is>
           <t>印制风景</t>
         </is>
       </c>
-      <c r="D547" t="inlineStr">
+      <c r="D568" t="inlineStr">
         <is>
           <t>HUB_PROFILE_PHOTO</t>
         </is>
       </c>
-      <c r="E547" t="n">
+      <c r="E568" t="n">
         <v>2</v>
       </c>
-      <c r="F547" t="n">
+      <c r="F568" t="n">
         <v>2</v>
       </c>
-      <c r="G547" t="inlineStr"/>
-      <c r="H547" t="n">
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="n">
         <v>44</v>
       </c>
-      <c r="I547" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr"/>
-      <c r="B548" t="inlineStr">
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr"/>
+      <c r="B569" t="inlineStr">
         <is>
           <t>选择喜欢的地点、伙伴、装饰品、姿势。</t>
         </is>
       </c>
-      <c r="C548" t="inlineStr">
+      <c r="C569" t="inlineStr">
         <is>
           <t>印制风景</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="n">
-        <v>0</v>
-      </c>
-      <c r="F548" t="n">
-        <v>0</v>
-      </c>
-      <c r="G548" t="inlineStr"/>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr"/>
-      <c r="B549" t="inlineStr">
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" t="inlineStr">
         <is>
           <t>全部选择完毕后，
 按下{[0802|080050006c0075007300]}进入印制模式，再按下{[0802|02004c00]}{[0802|02005200]}即可印制。</t>
         </is>
       </c>
-      <c r="C549" t="inlineStr">
+      <c r="C570" t="inlineStr">
         <is>
           <t>印制风景</t>
         </is>
       </c>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="n">
-        <v>0</v>
-      </c>
-      <c r="F549" t="n">
-        <v>0</v>
-      </c>
-      <c r="G549" t="inlineStr"/>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="n">
+        <v>0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
         <is>
           <t>TUTID_戦歴カード交換</t>
         </is>
       </c>
-      <c r="B550" t="inlineStr"/>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="n">
-        <v>0</v>
-      </c>
-      <c r="F550" t="n">
-        <v>0</v>
-      </c>
-      <c r="G550" t="inlineStr"/>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr"/>
-      <c r="B551" t="inlineStr">
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="n">
+        <v>0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr">
         <is>
           <t>只要游玩续战的试炼或异界的试炼，
 就会上传个人卡片，
 让其他玩家能够获得。</t>
         </is>
       </c>
-      <c r="C551" t="inlineStr">
+      <c r="C572" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D551" t="inlineStr">
+      <c r="D572" t="inlineStr">
         <is>
           <t>HUB_PROFILE_TRADE</t>
         </is>
       </c>
-      <c r="E551" t="n">
+      <c r="E572" t="n">
         <v>2</v>
       </c>
-      <c r="F551" t="n">
+      <c r="F572" t="n">
         <v>2</v>
       </c>
-      <c r="G551" t="inlineStr"/>
-      <c r="H551" t="n">
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="n">
         <v>45</v>
       </c>
-      <c r="I551" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr"/>
-      <c r="B552" t="inlineStr">
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr">
         <is>
           <t>若将卡片设定为“不公开”，
 其他玩家就无法获得上传的个人卡片。</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr">
+      <c r="C573" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="n">
-        <v>0</v>
-      </c>
-      <c r="F552" t="n">
-        <v>0</v>
-      </c>
-      <c r="G552" t="inlineStr"/>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr"/>
-      <c r="B553" t="inlineStr">
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr">
         <is>
           <t>可在异界战历卡菜单中查看、删除获得的卡片。</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr">
+      <c r="C574" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D553" t="inlineStr"/>
-      <c r="E553" t="n">
-        <v>0</v>
-      </c>
-      <c r="F553" t="n">
-        <v>0</v>
-      </c>
-      <c r="G553" t="inlineStr"/>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="n">
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="n">
+        <v>0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>TUTID_神竜の章</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>MID_TUT_HUB_GOD_START_0</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>MID_TUT_HUB_GOD_START_TITLE</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>HUB_GOD_START</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>2</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2</v>
+      </c>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="n">
+        <v>60</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>MID_TUT_HUB_GOD_START_1</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>MID_TUT_HUB_GOD_START_TITLE</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16239,7 +16887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -23027,6 +23675,1086 @@
         <v>2</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SID_星玉の加護</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SID_星玉の加護</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SID_星玉の加護</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>SID_星玉の加護</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>IID_チキ_つめ</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>IID_チキ_つめ</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>IID_チキ_つめ</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>IID_チキ_つめ</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>SID_竜化</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SID_竜化</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SID_竜化</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>SID_竜化</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>TID_幻影飛竜</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MJID_PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>MJID_H_PhantomFlyingDragon</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>PID_TIPS用_幻影飛竜</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>TID_切磋琢磨</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MSID_FriendlyCompetition</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>MID_TIPS_SKILL_30</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>SID_切磋琢磨</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SID_計略</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SID_計略</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SID_計略</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>SID_計略</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>SID_計略_引込の計</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SID_計略_引込の計</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SID_計略_引込の計</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>SID_計略_引込の計</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>SID_計略_猛火計</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SID_計略_猛火計</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SID_計略_猛火計</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SID_計略_猛火計</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SID_計略_聖盾の備え</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SID_計略_聖盾の備え</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SID_計略_聖盾の備え</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>SID_計略_聖盾の備え</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SID_計略_毒矢</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SID_計略_毒矢</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SID_計略_毒矢</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>SID_計略_毒矢</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>TID_武器シンクロ</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MSID_WeaponSynchronized</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>MID_TIPS_SKILL_31</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>SID_武器シンクロ</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>IID_三級長_アイムール</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>IID_三級長_アイムール</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>IID_三級長_アイムール</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>IID_三級長_アイムール</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>IID_三級長_アラドヴァル</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>IID_三級長_アラドヴァル</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>IID_三級長_アラドヴァル</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>IID_三級長_アラドヴァル</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>IID_三級長_フェイルノート</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>IID_三級長_フェイルノート</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>IID_三級長_フェイルノート</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>IID_三級長_フェイルノート</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>SID_血統</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SID_血統</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SID_血統</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>SID_血統</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>TID_戦技</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MSID_ClassPresidentsEngage</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>MID_TIPS_SKILL_33</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SID_戦技</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>TID_戦技_狂嵐</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MSID_ClassPresidentsEngage_MadStorm</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>MSID_H_ClassPresidentsEngage_MadStorm_CMD</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>SID_戦技_狂嵐</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>TID_戦技_無残</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MSID_ClassPresidentsEngage_Miserable</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MSID_H_ClassPresidentsEngage_Miserable_CMD</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>SID_戦技_無残</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>TID_戦技_落星</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MSID_ClassPresidentsEngage_FallingStarts</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>MSID_H_ClassPresidentsEngage_FallingStarts_CMD</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>SID_戦技_落星</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>TID_戦技_補足</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>基础知识</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MID_TIPS_SKILL_39</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>IID_シルバーカード</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>IID_シルバーカード</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>IID_シルバーカード</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>IID_シルバーカード</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>TID_チキトリビア01</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MID_TUT_TIPS_Tiki</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>MID_TIPS_GOD_24</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>TID_チキトリビア02</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>MID_TUT_TIPS_Tiki</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MID_TIPS_GOD_25</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>TID_エーデルガルトトリビア01</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MID_TUT_TIPS_Edelgard</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MID_TIPS_GOD_26</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>TID_ディミトリトリビア01</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MID_TUT_TIPS_Dimitri</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MID_TIPS_GOD_27</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>TID_クロードトリビア01</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MID_TUT_TIPS_Claude</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MID_TIPS_GOD_28</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/Tutorial.xlsx
+++ b/data/xlsx/Tutorial.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -15785,12 +15785,14 @@
       <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr">
         <is>
-          <t>MID_TUT_BMAP_SilverCard_0</t>
+          <t>持有此卡，
+便可在武器店或道具店
+享有7折的购物优惠。</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>MID_TUT_BMAP_SilverCard_TITLE</t>
+          <t>银卡</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -15815,7 +15817,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>TUTID_紋章士チキ</t>
+          <t>TUTID_火山弾２</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -15839,28 +15841,32 @@
       <c r="A540" t="inlineStr"/>
       <c r="B540" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_0</t>
+          <t>被火山弹击中时会受到伤害。</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_TITLE</t>
+          <t>火山弹</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>GOD_TIKI</t>
+          <t>BMAP_FIREBALL</t>
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F540" t="n">
-        <v>0</v>
-      </c>
-      <c r="G540" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
       <c r="H540" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -15870,12 +15876,13 @@
       <c r="A541" t="inlineStr"/>
       <c r="B541" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_1</t>
+          <t>火山弹必定会落在有“焦痕”的位置上，
+小心别停留在该处。</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_TITLE</t>
+          <t>火山弹</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
@@ -15897,12 +15904,13 @@
       <c r="A542" t="inlineStr"/>
       <c r="B542" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_2</t>
+          <t>另外，身处“喷火口”的单位
+也会受到伤害。</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_TITLE</t>
+          <t>火山弹</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
@@ -15921,17 +15929,13 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>MID_TUT_GOD_TIKI_3</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>MID_TUT_GOD_TIKI_TITLE</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>TUTID_黒煙</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="n">
         <v>0</v>
@@ -15951,22 +15955,31 @@
       <c r="A544" t="inlineStr"/>
       <c r="B544" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_4</t>
+          <t>若身处“黑烟”效果的地形，
+将会降低回避、防守与魔防。</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_TIKI_TITLE</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
+          <t>黑烟</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>BMAP_SMOKE</t>
+        </is>
+      </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F544" t="n">
-        <v>0</v>
-      </c>
-      <c r="G544" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
       <c r="H544" t="n">
         <v>0</v>
       </c>
@@ -15975,13 +15988,18 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>TUTID_紋章士エーデルガルト</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>另外，黑烟会在此战斗地图逐渐扩散，
+需多加留意。</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>黑烟</t>
+        </is>
+      </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="n">
         <v>0</v>
@@ -15998,31 +16016,23 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr"/>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>MID_TUT_GOD_EDELGARD_0</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>GOD_EDELGARD</t>
-        </is>
-      </c>
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>TUTID_紋章士チキ</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
       <c r="E546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F546" t="n">
         <v>0</v>
       </c>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -16032,24 +16042,29 @@
       <c r="A547" t="inlineStr"/>
       <c r="B547" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_1</t>
+          <t>“纹章士琪姬”能赐予各种加护，
+让我方单位藉由龙之力使出强大的攻击。</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr"/>
+          <t>纹章士琪姬</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>GOD_TIKI</t>
+        </is>
+      </c>
       <c r="E547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F547" t="n">
         <v>0</v>
       </c>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -16059,12 +16074,13 @@
       <c r="A548" t="inlineStr"/>
       <c r="B548" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_2</t>
+          <t>同步技“星玉加护”在等级提升时，
+可让基本能力值较易上升。</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+          <t>纹章士琪姬</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
@@ -16086,12 +16102,14 @@
       <c r="A549" t="inlineStr"/>
       <c r="B549" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_3</t>
+          <t>结合武器“吐息”
+可对攻击目标及其周围的敌人造成伤害，
+还能依战斗类型变换性能。</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+          <t>纹章士琪姬</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -16113,12 +16131,13 @@
       <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_4</t>
+          <t>结合特技“龙化”
+可化成龙，大幅增强能力值。</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>MID_TUT_GOD_EDELGARD_TITLE</t>
+          <t>纹章士琪姬</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
@@ -16137,13 +16156,19 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>TUTID_神竜ワールドマップ</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr"/>
-      <c r="C551" t="inlineStr"/>
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>结合技“神龙的祝福”
+可赋予指定的我方单位“复活之石”，
+让该单位在HP归零时也能完全回复HP。</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>纹章士琪姬</t>
+        </is>
+      </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="n">
         <v>0</v>
@@ -16160,31 +16185,23 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr"/>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>MID_TUT_GMAP_GOD_0</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>MID_TUT_GMAP_GOD_TITLE</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>GMAP_GOD</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>TUTID_紋章士ヘクトル</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
       <c r="E552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -16194,37 +16211,48 @@
       <c r="A553" t="inlineStr"/>
       <c r="B553" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_GOD_1</t>
+          <t>“纹章士海克托尔”拥有傲人的高防御力，
+可在保护我方单位的同时，利用反击来击退敌人。</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_GOD_TITLE</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr"/>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>GOD_HECTOR</t>
+        </is>
+      </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F553" t="n">
         <v>0</v>
       </c>
       <c r="G553" t="inlineStr"/>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>TUTID_回想戦</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
-      <c r="C554" t="inlineStr"/>
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>同步技“回击”
+在受到攻击时，若还剩一定程度的HP，
+将可增加反击时的攻击次数。</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="n">
         <v>0</v>
@@ -16244,28 +16272,25 @@
       <c r="A555" t="inlineStr"/>
       <c r="B555" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_0</t>
+          <t>结合武器“沃夫拜尔”
+可对骑马的敌人及重装兵造成大量伤害。</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>GMAP_RECOLLECTION_BATTLE</t>
-        </is>
-      </c>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="E555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G555" t="inlineStr"/>
       <c r="H555" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -16275,12 +16300,13 @@
       <c r="A556" t="inlineStr"/>
       <c r="B556" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_1</t>
+          <t>结合特技“铁壁”
+可在受到攻击时，提升防守与魔防。</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
+          <t>纹章士海克托尔</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
@@ -16302,12 +16328,14 @@
       <c r="A557" t="inlineStr"/>
       <c r="B557" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_2</t>
+          <t>结合技“止水雷轰架势”
+可在敌军行动阶段时，封印敌人发动追击和打破的能力，
+并增加自身反击时的攻击次数。</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>MID_TUT_GMAP_RECOLLECTION_BATTLE_TITLE</t>
+          <t>纹章士海克托尔</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
@@ -16328,7 +16356,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>TUTID_活動記録の館</t>
+          <t>TUTID_紋章士セネリオ</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -16352,29 +16380,29 @@
       <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>可在活动记录馆
-查看及编辑“神龙战历卡”。</t>
+          <t>“纹章士塞涅里欧”擅长魔法攻击，
+会引诱或妨碍敌人，让战况有利于我军。</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>活动记录馆</t>
+          <t>纹章士塞涅里欧</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>HUB_RECORD_HALL</t>
+          <t>GOD_SENERIO</t>
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -16384,14 +16412,13 @@
       <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>在据点菜单的“伙伴”
-也可执行相同操作。
-（只能在索拉涅尔的室外印制风景）</t>
+          <t>同步技“指名诱饵”
+可使指定的我方单位容易成为敌方目标。</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>活动记录馆</t>
+          <t>纹章士塞涅里欧</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
@@ -16410,13 +16437,18 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>TUTID_戦歴カード</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr"/>
-      <c r="C561" t="inlineStr"/>
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>结合武器“雷暴”的射程较远，
+可攻击远处的敌人。</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>纹章士塞涅里欧</t>
+        </is>
+      </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="n">
         <v>0</v>
@@ -16436,29 +16468,26 @@
       <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>能够记录到目前为止的游玩记录，
-以及自己简历的卡片。</t>
+          <t>结合特技“阳光”
+可在使用魔法攻击时，减少对手的魔防，
+并依造成的伤害回复HP。</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>神龙战历卡</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>HUB_PROFILE</t>
-        </is>
-      </c>
+          <t>纹章士塞涅里欧</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G562" t="inlineStr"/>
       <c r="H562" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -16468,14 +16497,13 @@
       <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>只要使用通信功能，
-即可向其他玩家公开自己的战历卡，
-或是获得其他玩家的战历卡。</t>
+          <t>结合技“灾厄”
+会以炎、雷、风的连续魔法展开广域攻击。</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>神龙战历卡</t>
+          <t>纹章士塞涅里欧</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -16496,7 +16524,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>TUTID_戦歴カード編集</t>
+          <t>TUTID_紋章士カミラ</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -16520,28 +16548,29 @@
       <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
-          <t>可在“个人卡片”编辑自己的战历卡。</t>
+          <t>“纹章士卡美拉”拥有改变地形的力量及飞行能力，
+可从地面和空中控制战场。</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>编辑战历卡</t>
+          <t>纹章士卡美拉</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>HUB_PROFILE_EDIT</t>
+          <t>GOD_CAMILLA</t>
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G565" t="inlineStr"/>
       <c r="H565" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -16551,13 +16580,14 @@
       <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
-          <t>持续游玩以满足条件，
-能够选择的词语及素材就会增加。</t>
+          <t>同步技“龙脉·暗”可依据我方单位
+同步时的战斗类型赋予地形各种特殊效果，
+并消除该地形上的“火焰”和“瘴气”等效果。</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>编辑战历卡</t>
+          <t>纹章士卡美拉</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
@@ -16576,13 +16606,18 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>TUTID_戦歴カード撮影</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr"/>
-      <c r="C567" t="inlineStr"/>
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>结合武器“闪雷斧”
+可对远处的敌人发动魔法攻击。</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>纹章士卡美拉</t>
+        </is>
+      </c>
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="n">
         <v>0</v>
@@ -16602,28 +16637,26 @@
       <c r="A568" t="inlineStr"/>
       <c r="B568" t="inlineStr">
         <is>
-          <t>可以印制（拍摄）要显示在战历卡上的图片。</t>
+          <t>结合特技“天驱”
+可提升移动力，使单位和飞行类型一样，
+能进入“无法步行”的地形。</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>印制风景</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>HUB_PROFILE_PHOTO</t>
-        </is>
-      </c>
+          <t>纹章士卡美拉</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr"/>
       <c r="E568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -16633,12 +16666,14 @@
       <c r="A569" t="inlineStr"/>
       <c r="B569" t="inlineStr">
         <is>
-          <t>选择喜欢的地点、伙伴、装饰品、姿势。</t>
+          <t>结合技“暗夜爆破阵”
+可用大范围的爆炸对敌人造成伤害，
+并赋予地形“火焰”的效果。</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>印制风景</t>
+          <t>纹章士卡美拉</t>
         </is>
       </c>
       <c r="D569" t="inlineStr"/>
@@ -16657,18 +16692,13 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr"/>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>全部选择完毕后，
-按下{[0802|080050006c0075007300]}进入印制模式，再按下{[0802|02004c00]}{[0802|02005200]}即可印制。</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>印制风景</t>
-        </is>
-      </c>
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>TUTID_紋章士エーデルガルト</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="n">
         <v>0</v>
@@ -16685,23 +16715,32 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>TUTID_戦歴カード交換</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr"/>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr"/>
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>“纹章士艾黛尔贾特”与帝弥托利及库罗德
+会随机交替上场，使出各种不同的能力。</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>GOD_EDELGARD</t>
+        </is>
+      </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F571" t="n">
         <v>0</v>
       </c>
       <c r="G571" t="inlineStr"/>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -16711,168 +16750,973 @@
       <c r="A572" t="inlineStr"/>
       <c r="B572" t="inlineStr">
         <is>
+          <t>处于同步状态的纹章士不同
+同步技“计策”所能使用的指令
+也会有所不同。</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>结合武器“艾姆鲁”
+可对敌人猛击，
+并能对龙族造成大量伤害。</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>结合特技“战技”
+可消耗结合状态的持续回合数，
+从三种招式中择一使用。</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="n">
+        <v>0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>结合技“连花月风闪”可用斧、枪、弓的
+连续攻击，让敌人较易陷入打破状态，
+并能对飞行的敌人造成大量伤害。</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>TUTID_神竜ワールドマップ</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>可通过世界地图菜单
+前往主线故事的世界地图，
+或回到据点索拉涅尔。</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>世界地图（神龙之章）</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>GMAP_GOD</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>3</v>
+      </c>
+      <c r="F577" t="n">
+        <v>2</v>
+      </c>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="n">
+        <v>10</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>已通关的地图也有可能会出现遭遇战。</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>世界地图（神龙之章）</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>TUTID_回想戦</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="n">
+        <v>0</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr"/>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>即使已通关扩展票新增的战斗地图，
+依然可通过“回想战”重温故事剧情。</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>回想战</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>GMAP_RECOLLECTION_BATTLE</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>3</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2</v>
+      </c>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="n">
+        <v>12</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>通过替换不同成员，
+可不断享受攻略地图的乐趣。</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>回想战</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="n">
+        <v>0</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>但无法获得经验值与道具。
+此外，出击时“消耗的道具”及“倒下的伙伴”
+都会在游玩结束后恢复原状。</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>回想战</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>TUTID_リフレッシュ</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>可选择2名伙伴一起在索拉涅尔
+放松战斗后的疲惫身心。</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>放松身心</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>HUB_REFRESH</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>2</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2</v>
+      </c>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="n">
+        <v>41</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>一起放松时，有机会提升支援值。</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>放松身心</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr"/>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>在下次出击前，
+可在泳池、果树园与马厩各放松身心1次。</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>放松身心</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="n">
+        <v>0</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0</v>
+      </c>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>TUTID_活動記録の館</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="n">
+        <v>0</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0</v>
+      </c>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>可在活动记录馆
+查看及编辑“神龙战历卡”。</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>活动记录馆</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>HUB_RECORD_HALL</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>2</v>
+      </c>
+      <c r="F588" t="n">
+        <v>2</v>
+      </c>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="n">
+        <v>42</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>在据点菜单的“伙伴”
+也可执行相同操作。
+（只能在索拉涅尔的室外印制风景）</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>活动记录馆</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0</v>
+      </c>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>TUTID_戦歴カード</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr"/>
+      <c r="E590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>能够记录到目前为止的游玩记录，
+以及自己简历的卡片。</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>神龙战历卡</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>HUB_PROFILE</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>2</v>
+      </c>
+      <c r="F591" t="n">
+        <v>2</v>
+      </c>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="n">
+        <v>42</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>只要使用通信功能，
+即可向其他玩家公开自己的战历卡，
+或是获得其他玩家的战历卡。</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>神龙战历卡</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr"/>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>TUTID_戦歴カード編集</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0</v>
+      </c>
+      <c r="G593" t="inlineStr"/>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>可在“个人卡片”编辑自己的战历卡。</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>编辑战历卡</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>HUB_PROFILE_EDIT</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>2</v>
+      </c>
+      <c r="F594" t="n">
+        <v>2</v>
+      </c>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="n">
+        <v>43</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr"/>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>持续游玩以满足条件，
+能够选择的词语及素材就会增加。</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>编辑战历卡</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0</v>
+      </c>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>TUTID_戦歴カード撮影</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr"/>
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>可以印制（拍摄）要显示在战历卡上的图片。</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>印制风景</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>HUB_PROFILE_PHOTO</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>2</v>
+      </c>
+      <c r="F597" t="n">
+        <v>2</v>
+      </c>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="n">
+        <v>44</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>选择喜欢的地点、伙伴、装饰品、姿势。</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>印制风景</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr"/>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>全部选择完毕后，
+按下{[0802|080050006c0075007300]}进入印制模式，再按下{[0802|02004c00]}{[0802|02005200]}即可印制。</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>印制风景</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0</v>
+      </c>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>TUTID_戦歴カード交換</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr">
+        <is>
           <t>只要游玩续战的试炼或异界的试炼，
 就会上传个人卡片，
 让其他玩家能够获得。</t>
         </is>
       </c>
-      <c r="C572" t="inlineStr">
+      <c r="C601" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D572" t="inlineStr">
+      <c r="D601" t="inlineStr">
         <is>
           <t>HUB_PROFILE_TRADE</t>
         </is>
       </c>
-      <c r="E572" t="n">
+      <c r="E601" t="n">
         <v>2</v>
       </c>
-      <c r="F572" t="n">
+      <c r="F601" t="n">
         <v>2</v>
       </c>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="n">
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="n">
         <v>45</v>
       </c>
-      <c r="I572" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr"/>
-      <c r="B573" t="inlineStr">
+      <c r="I601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr">
         <is>
           <t>若将卡片设定为“不公开”，
 其他玩家就无法获得上传的个人卡片。</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr">
+      <c r="C602" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="n">
-        <v>0</v>
-      </c>
-      <c r="F573" t="n">
-        <v>0</v>
-      </c>
-      <c r="G573" t="inlineStr"/>
-      <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr">
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="n">
+        <v>0</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" t="inlineStr">
         <is>
           <t>可在异界战历卡菜单中查看、删除获得的卡片。</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr">
+      <c r="C603" t="inlineStr">
         <is>
           <t>交换战历卡</t>
         </is>
       </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="n">
-        <v>0</v>
-      </c>
-      <c r="F574" t="n">
-        <v>0</v>
-      </c>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0</v>
+      </c>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
         <is>
           <t>TUTID_神竜の章</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr"/>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="n">
-        <v>0</v>
-      </c>
-      <c r="F575" t="n">
-        <v>0</v>
-      </c>
-      <c r="G575" t="inlineStr"/>
-      <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr"/>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>MID_TUT_HUB_GOD_START_0</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>MID_TUT_HUB_GOD_START_TITLE</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr">
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0</v>
+      </c>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr"/>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>可通过世界地图
+前往纹章士手镯所沉睡的岛屿。</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>神龙之章</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
         <is>
           <t>HUB_GOD_START</t>
         </is>
       </c>
-      <c r="E576" t="n">
+      <c r="E605" t="n">
         <v>2</v>
       </c>
-      <c r="F576" t="n">
+      <c r="F605" t="n">
         <v>2</v>
       </c>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="n">
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="n">
         <v>60</v>
       </c>
-      <c r="I576" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr"/>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>MID_TUT_HUB_GOD_START_1</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>MID_TUT_HUB_GOD_START_TITLE</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr"/>
-      <c r="E577" t="n">
-        <v>0</v>
-      </c>
-      <c r="F577" t="n">
-        <v>0</v>
-      </c>
-      <c r="G577" t="inlineStr"/>
-      <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="n">
+      <c r="I605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr"/>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>随时都能返回主线故事，
+想到时就过去看看吧！</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>神龙之章</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0</v>
+      </c>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16887,7 +17731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -20298,17 +21142,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TID_敵のエンゲ技</t>
+          <t>TID_リフレッシュ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>暗之同步的敌人可在结合计量条闪烁时使用结合技。</t>
+          <t>每结束1场战斗，都可在索拉涅尔的3个地方各“放松身心”1次，一起放松的伙伴也会提升支援值。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -20326,7 +21170,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TID_敵のエンゲ技ダメージ</t>
+          <t>TID_敵のエンゲ技</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -20336,7 +21180,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>我方单位结合时如受到敌方的结合技攻击，将会减轻伤害。</t>
+          <t>暗之同步的敌人可在结合计量条闪烁时使用结合技。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -20354,29 +21198,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SID_僕が守ります！</t>
+          <t>TID_敵のエンゲ技ダメージ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>由我守护！</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>由我守护！</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>史塔卢克</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>由我守护！</t>
-        </is>
-      </c>
+          <t>我方单位结合时如受到敌方的结合技攻击，将会减轻伤害。</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -20390,21 +21226,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TID_クラスチェンジ</t>
+          <t>SID_僕が守ります！</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>由我守护！</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>即使等级达到上限，也可使用“转职证”将等级恢复成1，使能力继续成长。</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+          <t>由我守护！</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>史塔卢克</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>由我守护！</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -20418,17 +21262,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TID_毒の治療</t>
+          <t>TID_クラスチェンジ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>消费道具</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>“中毒”的效果在出击期间会持续生效。（用解毒剂或杖即可治疗。）</t>
+          <t>即使等级达到上限，也可使用“转职证”将等级恢复成1，使能力继续成长。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -20446,7 +21290,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TID_マスタープルフ</t>
+          <t>TID_毒の治療</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -20456,7 +21300,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>我方单位等级升到10后，可使用“大师证”转职成高阶兵种。</t>
+          <t>“中毒”的效果在出击期间会持续生效。（用解毒剂或杖即可治疗。）</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -20474,17 +21318,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TID_スマッシュ武器</t>
+          <t>TID_マスタープルフ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>武器</t>
+          <t>消费道具</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>使用持有“猛击”效果的武器发动攻击必定为后攻。</t>
+          <t>我方单位等级升到10后，可使用“大师证”转职成高阶兵种。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -20502,17 +21346,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TID_釣り体験</t>
+          <t>TID_スマッシュ武器</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>索拉涅尔</t>
+          <t>武器</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>在“涌泉池畔”钓到的鱼可用作料理的食材。</t>
+          <t>使用持有“猛击”效果的武器发动攻击必定为后攻。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -20530,29 +21374,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SID_ロイエンゲージ技</t>
+          <t>TID_釣り体験</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>狮子红莲焰舞</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>狮子红莲焰舞</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GID_ロイ</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>狮子红莲焰舞</t>
-        </is>
-      </c>
+          <t>在“涌泉池畔”钓到的鱼可用作料理的食材。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -20566,17 +21402,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SID_踏ん張り</t>
+          <t>SID_ロイエンゲージ技</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>坚持</t>
+          <t>狮子红莲焰舞</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>坚持</t>
+          <t>狮子红莲焰舞</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -20586,7 +21422,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>坚持</t>
+          <t>狮子红莲焰舞</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -20602,17 +21438,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SID_超越</t>
+          <t>SID_踏ん張り</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>超越</t>
+          <t>坚持</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>超越</t>
+          <t>坚持</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -20622,7 +21458,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>超越</t>
+          <t>坚持</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -20638,27 +21474,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SID_真っ向勝負</t>
+          <t>SID_超越</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>正面对决</t>
+          <t>超越</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>正面对决</t>
+          <t>超越</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>帝亚曼德</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>正面对决</t>
+          <t>超越</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -20674,23 +21510,27 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IID_アイスロック</t>
+          <t>SID_真っ向勝負</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>冰锁</t>
+          <t>正面对决</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>冰锁</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>正面对决</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>帝亚曼德</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>冰锁</t>
+          <t>正面对决</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -20706,27 +21546,23 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IID_ロイ_ランスバスター</t>
+          <t>IID_アイスロック</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>破枪剑</t>
+          <t>冰锁</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>破枪剑</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GID_ロイ</t>
-        </is>
-      </c>
+          <t>冰锁</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>破枪剑</t>
+          <t>冰锁</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -20742,23 +21578,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IID_リライブ</t>
+          <t>IID_ロイ_ランスバスター</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>大圣疗</t>
+          <t>破枪剑</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>大圣疗</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>破枪剑</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GID_ロイ</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>大圣疗</t>
+          <t>破枪剑</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -20774,23 +21614,23 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IID_リワープ</t>
+          <t>IID_リライブ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>自我传送</t>
+          <t>大圣疗</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>自我传送</t>
+          <t>大圣疗</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>自我传送</t>
+          <t>大圣疗</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -20806,23 +21646,23 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IID_レスト</t>
+          <t>IID_リワープ</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>自我传送</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>自我传送</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>自我传送</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -20838,27 +21678,23 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SID_武器相性激化</t>
+          <t>IID_レスト</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>避开要害</t>
+          <t>休息</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>避开要害</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GID_リーフ</t>
-        </is>
-      </c>
+          <t>休息</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>避开要害</t>
+          <t>休息</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -20874,17 +21710,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SID_リーフエンゲージ技</t>
+          <t>SID_武器相性激化</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>四重巧击</t>
+          <t>避开要害</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>四重巧击</t>
+          <t>避开要害</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -20894,7 +21730,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>四重巧击</t>
+          <t>避开要害</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -20910,17 +21746,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SID_順応</t>
+          <t>SID_リーフエンゲージ技</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>瞬应</t>
+          <t>四重巧击</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>瞬应</t>
+          <t>四重巧击</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -20930,7 +21766,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>瞬应</t>
+          <t>四重巧击</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -20946,17 +21782,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IID_リーフ_キラーアクス</t>
+          <t>SID_順応</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>必杀斧</t>
+          <t>瞬应</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>必杀斧</t>
+          <t>瞬应</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -20966,7 +21802,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>必杀斧</t>
+          <t>瞬应</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -20982,21 +21818,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TID_チェンジプルフ</t>
+          <t>IID_リーフ_キラーアクス</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>消费道具</t>
+          <t>必杀斧</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>使用“转职证”就可转职成其他类型的兵种。</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+          <t>必杀斧</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GID_リーフ</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>必杀斧</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21010,17 +21854,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TID_キル系の武器</t>
+          <t>TID_チェンジプルフ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>武器</t>
+          <t>消费道具</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>“必杀剑”、“必杀枪”等必杀型武器较易使出必杀攻击。</t>
+          <t>使用“转职证”就可转职成其他类型的兵种。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -21038,17 +21882,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TID_ミニゲーム</t>
+          <t>TID_キル系の武器</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>索拉涅尔</t>
+          <t>武器</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>在“飞龙射手”中拿下高分将可获得大量牵绊碎片。</t>
+          <t>“必杀剑”、“必杀枪”等必杀型武器较易使出必杀攻击。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -21066,7 +21910,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TID_ドラゴンシューター</t>
+          <t>TID_ミニゲーム</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -21076,7 +21920,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{[0603]}的兵种变成“神龙之王”后，即可在后院游玩“飞龙射手”。</t>
+          <t>在“飞龙射手”中拿下高分将可获得大量牵绊碎片。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -21094,29 +21938,21 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SID_絆の力</t>
+          <t>TID_ドラゴンシューター</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>双重攻击</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>双重攻击</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GID_ルキナ</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>双重攻击</t>
-        </is>
-      </c>
+          <t>{[0603]}的兵种变成“神龙之王”后，即可在后院游玩“飞龙射手”。</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21130,17 +21966,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SID_ルキナエンゲージ技</t>
+          <t>SID_絆の力</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>人人为我</t>
+          <t>双重攻击</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>人人为我</t>
+          <t>双重攻击</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -21150,7 +21986,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>人人为我</t>
+          <t>双重攻击</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -21166,27 +22002,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SID_速さの吸収</t>
+          <t>SID_ルキナエンゲージ技</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>速度吸收</t>
+          <t>人人为我</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>速度吸收</t>
+          <t>人人为我</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>速度吸收</t>
+          <t>人人为我</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -21202,17 +22038,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SID_リンエンゲージ技</t>
+          <t>SID_速さの吸収</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>流星群</t>
+          <t>速度吸收</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>流星群</t>
+          <t>速度吸收</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -21222,7 +22058,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>流星群</t>
+          <t>速度吸收</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -21238,17 +22074,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SID_攻め立て</t>
+          <t>SID_リンエンゲージ技</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>强攻</t>
+          <t>流星群</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>强攻</t>
+          <t>流星群</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -21258,7 +22094,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>强攻</t>
+          <t>流星群</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -21274,17 +22110,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SID_残像</t>
+          <t>SID_攻め立て</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>残像</t>
+          <t>强攻</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>残像</t>
+          <t>强攻</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -21294,7 +22130,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>残像</t>
+          <t>强攻</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -21310,27 +22146,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SID_執着</t>
+          <t>SID_残像</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>执着</t>
+          <t>残像</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>执着</t>
+          <t>残像</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>艾比</t>
+          <t>GID_リン</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>执着</t>
+          <t>残像</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -21346,23 +22182,27 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IID_フリーズ</t>
+          <t>SID_執着</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>冰封</t>
+          <t>执着</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>冰封</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>执着</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>艾比</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>冰封</t>
+          <t>执着</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -21378,23 +22218,23 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IID_サイレス</t>
+          <t>IID_フリーズ</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>沉默</t>
+          <t>冰封</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>沉默</t>
+          <t>冰封</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>沉默</t>
+          <t>冰封</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -21410,27 +22250,23 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IID_ルキナ_ノーブルレイピア</t>
+          <t>IID_サイレス</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>王室贵族刺剑</t>
+          <t>沉默</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>王室贵族刺剑</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GID_ルキナ</t>
-        </is>
-      </c>
+          <t>沉默</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>王室贵族刺剑</t>
+          <t>沉默</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -21446,27 +22282,27 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IID_リン_キラーボウ</t>
+          <t>IID_ルキナ_ノーブルレイピア</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>必杀弓</t>
+          <t>王室贵族刺剑</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>必杀弓</t>
+          <t>王室贵族刺剑</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>必杀弓</t>
+          <t>王室贵族刺剑</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -21482,23 +22318,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IID_リブロー</t>
+          <t>IID_リン_キラーボウ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>远程圣疗</t>
+          <t>必杀弓</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>远程圣疗</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>必杀弓</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GID_リン</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>远程圣疗</t>
+          <t>必杀弓</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -21514,27 +22354,23 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SID_人たらし</t>
+          <t>IID_リブロー</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>八面玲珑</t>
+          <t>远程圣疗</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>八面玲珑</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>佛贾特</t>
-        </is>
-      </c>
+          <t>远程圣疗</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>八面玲珑</t>
+          <t>远程圣疗</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -21550,21 +22386,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TID_蚤の市</t>
+          <t>SID_人たらし</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>索拉涅尔</t>
+          <t>八面玲珑</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>在“跳蚤市场”可以买到一般商店买不到的珍贵商品。</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+          <t>八面玲珑</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>佛贾特</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>八面玲珑</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21578,17 +22422,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TID_紋章士外伝</t>
+          <t>TID_蚤の市</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>世界地图</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>这片大陆似乎到处都存在着试炼之地，可加深与纹章士之间的牵绊。</t>
+          <t>在“跳蚤市场”可以买到一般商店买不到的珍贵商品。</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -21606,17 +22450,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TID_アイクのエンゲ技</t>
+          <t>TID_紋章士外伝</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>世界地图</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>艾克的结合技“霸克·天空”可消除范围攻击内格子的“火焰”及“瘴气”。</t>
+          <t>这片大陆似乎到处都存在着试炼之地，可加深与纹章士之间的牵绊。</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -21634,29 +22478,21 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SID_アイクエンゲージ技</t>
+          <t>TID_アイクのエンゲ技</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>霸克·天空</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>霸克·天空</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>GID_アイク</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>霸克·天空</t>
-        </is>
-      </c>
+          <t>艾克的结合技“霸克·天空”可消除范围攻击内格子的“火焰”及“瘴气”。</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21670,17 +22506,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SID_引き戻し</t>
+          <t>SID_アイクエンゲージ技</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>带回</t>
+          <t>霸克·天空</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>带回</t>
+          <t>霸克·天空</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -21690,7 +22526,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>带回</t>
+          <t>霸克·天空</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -21706,17 +22542,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SID_破壊</t>
+          <t>SID_引き戻し</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>破坏</t>
+          <t>带回</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>破坏</t>
+          <t>带回</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -21726,7 +22562,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>破坏</t>
+          <t>带回</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -21742,27 +22578,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SID_ソルムの騒音</t>
+          <t>SID_破壊</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>索尔姆的噪音</t>
+          <t>破坏</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>索尔姆的噪音</t>
+          <t>破坏</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>蜜丝提拉</t>
+          <t>GID_アイク</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>索尔姆的噪音</t>
+          <t>破坏</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -21778,27 +22614,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IID_アイク_ハンマー</t>
+          <t>SID_ソルムの騒音</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>战锤</t>
+          <t>索尔姆的噪音</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>战锤</t>
+          <t>索尔姆的噪音</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>蜜丝提拉</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>战锤</t>
+          <t>索尔姆的噪音</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -21814,25 +22650,29 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TID_ベレトのエンゲ武器</t>
+          <t>IID_アイク_ハンマー</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>战锤</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>与贝雷特结合的我方单位，其战斗类型会影响贝雷特的结合武器。</t>
+          <t>战锤</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>GID_アイク</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>战锤</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21846,17 +22686,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SID_ベレトエンゲージ技</t>
+          <t>TID_ベレトのエンゲ武器</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>计策：女神之舞</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>计策：女神之舞</t>
+          <t>与贝雷特结合的我方单位，其战斗类型会影响贝雷特的结合武器。</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -21864,11 +22704,7 @@
           <t>GID_ベレト</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>计策：女神之舞</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -21882,17 +22718,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SID_師の導き</t>
+          <t>SID_ベレトエンゲージ技</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>老师的引导</t>
+          <t>计策：女神之舞</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>老师的引导</t>
+          <t>计策：女神之舞</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -21902,7 +22738,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>老师的引导</t>
+          <t>计策：女神之舞</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -21918,17 +22754,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SID_先生</t>
+          <t>SID_師の導き</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>指导</t>
+          <t>老师的引导</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>指导</t>
+          <t>老师的引导</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -21938,7 +22774,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>指导</t>
+          <t>老师的引导</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -21954,23 +22790,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IID_コラプス</t>
+          <t>SID_先生</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>崩塌</t>
+          <t>指导</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>崩塌</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>GID_ベレト</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>崩塌</t>
+          <t>指导</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -21986,27 +22826,23 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>IID_ベレト_アイムール</t>
+          <t>IID_コラプス</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>艾姆鲁</t>
+          <t>崩塌</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>艾姆鲁</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>GID_ベレト</t>
-        </is>
-      </c>
+          <t>崩塌</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>艾姆鲁</t>
+          <t>崩塌</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -22022,17 +22858,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IID_ベレト_ブルトガング</t>
+          <t>IID_ベレト_アイムール</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>布鲁托刚格</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>布鲁托刚格</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -22042,7 +22878,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>布鲁托刚格</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -22058,17 +22894,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IID_ベレト_ルーン</t>
+          <t>IID_ベレト_ブルトガング</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>卢恩</t>
+          <t>布鲁托刚格</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>卢恩</t>
+          <t>布鲁托刚格</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -22078,7 +22914,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>卢恩</t>
+          <t>布鲁托刚格</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -22094,17 +22930,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IID_ベレト_アラドヴァル</t>
+          <t>IID_ベレト_ルーン</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>阿莱德巴尔</t>
+          <t>卢恩</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>阿莱德巴尔</t>
+          <t>卢恩</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -22114,7 +22950,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>阿莱德巴尔</t>
+          <t>卢恩</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -22130,17 +22966,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IID_ベレト_アイギスの盾</t>
+          <t>IID_ベレト_アラドヴァル</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>埃癸斯之盾</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>埃癸斯之盾</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -22150,7 +22986,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>埃癸斯之盾</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -22166,17 +23002,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IID_ベレト_フェイルノート</t>
+          <t>IID_ベレト_アイギスの盾</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>费鲁诺特</t>
+          <t>埃癸斯之盾</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>费鲁诺特</t>
+          <t>埃癸斯之盾</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -22186,7 +23022,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>费鲁诺特</t>
+          <t>埃癸斯之盾</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -22202,17 +23038,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IID_ベレト_テュルソスの杖</t>
+          <t>IID_ベレト_フェイルノート</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>提尔狩斯之杖</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>提尔狩斯之杖</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -22222,7 +23058,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>提尔狩斯之杖</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -22238,17 +23074,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IID_ベレト_ラファイルの宝珠</t>
+          <t>IID_ベレト_テュルソスの杖</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>拉法叶之宝珠</t>
+          <t>提尔狩斯之杖</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>拉法叶之宝珠</t>
+          <t>提尔狩斯之杖</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -22258,7 +23094,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>拉法叶之宝珠</t>
+          <t>提尔狩斯之杖</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -22274,27 +23110,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SID_煌めく理力</t>
+          <t>IID_ベレト_ラファイルの宝珠</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>辉煌原力</t>
+          <t>拉法叶之宝珠</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>辉煌原力</t>
+          <t>拉法叶之宝珠</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>奥尔坦希亚</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>辉煌原力</t>
+          <t>拉法叶之宝珠</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -22310,21 +23146,29 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TID_竜脈や竜穿砲</t>
+          <t>SID_煌めく理力</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>辉煌原力</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>神威的“龙脉”能赋予地形特殊效果，取代原本的效果。</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+          <t>辉煌原力</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>奥尔坦希亚</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>辉煌原力</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22338,17 +23182,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TID_占いの小屋</t>
+          <t>TID_竜脈や竜穿砲</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>索拉涅尔</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>“占卜小屋”只有晚上会营业。</t>
+          <t>神威的“龙脉”能赋予地形特殊效果，取代原本的效果。</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -22366,29 +23210,21 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SID_カムイエンゲージ技</t>
+          <t>TID_占いの小屋</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>龙穿炮</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>龙穿炮</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>GID_カムイ</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>龙穿炮</t>
-        </is>
-      </c>
+          <t>“占卜小屋”只有晚上会营业。</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22402,17 +23238,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SID_竜脈</t>
+          <t>SID_カムイエンゲージ技</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>龙脉</t>
+          <t>龙穿炮</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>龙脉</t>
+          <t>龙穿炮</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -22422,7 +23258,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>龙脉</t>
+          <t>龙穿炮</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -22438,17 +23274,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SID_防陣</t>
+          <t>SID_竜脈</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>防阵</t>
+          <t>龙脉</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>防阵</t>
+          <t>龙脉</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22458,7 +23294,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>防阵</t>
+          <t>龙脉</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -22474,17 +23310,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IID_カムイ_逆刀</t>
+          <t>SID_防陣</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>逆刀</t>
+          <t>防阵</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>逆刀</t>
+          <t>防阵</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -22494,7 +23330,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>逆刀</t>
+          <t>防阵</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -22510,23 +23346,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>IID_特効薬</t>
+          <t>IID_カムイ_逆刀</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>特效药</t>
+          <t>逆刀</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>特效药</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>逆刀</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>GID_カムイ</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>特效药</t>
+          <t>逆刀</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -22542,21 +23382,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TID_試練の離れ</t>
+          <t>IID_特効薬</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>索拉涅尔</t>
+          <t>特效药</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>在“试炼别屋”挑战试炼即可获得特别的强化材料，强化结合武器。</t>
+          <t>特效药</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>特效药</t>
+        </is>
+      </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22570,29 +23414,21 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SID_月の腕輪</t>
+          <t>TID_試練の離れ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>月之手镯</t>
+          <t>索拉涅尔</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>月之手镯</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>GID_エイリーク</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>月之手镯</t>
-        </is>
-      </c>
+          <t>在“试炼别屋”挑战试炼即可获得特别的强化材料，强化结合武器。</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22606,27 +23442,27 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SID_太陽の腕輪</t>
+          <t>SID_月の腕輪</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>太阳之手镯</t>
+          <t>月之手镯</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>太阳之手镯</t>
+          <t>月之手镯</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>GID_エフラム</t>
+          <t>GID_エイリーク</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>太阳之手镯</t>
+          <t>月之手镯</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -22642,27 +23478,27 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SID_エイリークエンゲージ技</t>
+          <t>SID_太陽の腕輪</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>双流</t>
+          <t>太阳之手镯</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>双流</t>
+          <t>太阳之手镯</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>GID_エフラム</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>双流</t>
+          <t>太阳之手镯</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -22678,17 +23514,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SID_オルタネイト</t>
+          <t>SID_エイリークエンゲージ技</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>交替</t>
+          <t>双流</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>交替</t>
+          <t>双流</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -22698,7 +23534,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>交替</t>
+          <t>双流</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -22714,17 +23550,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SID_双聖</t>
+          <t>SID_オルタネイト</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>双圣</t>
+          <t>交替</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>双圣</t>
+          <t>交替</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -22734,7 +23570,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>双圣</t>
+          <t>交替</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -22750,17 +23586,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IID_エイリーク_レイピア</t>
+          <t>SID_双聖</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>刺剑</t>
+          <t>双圣</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>刺剑</t>
+          <t>双圣</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -22770,7 +23606,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>刺剑</t>
+          <t>双圣</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -22786,23 +23622,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>IID_レスキュー</t>
+          <t>IID_エイリーク_レイピア</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>救援</t>
+          <t>刺剑</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>救援</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>刺剑</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>GID_エイリーク</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>救援</t>
+          <t>刺剑</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -22818,21 +23658,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>TID_勇者系の武器</t>
+          <t>IID_レスキュー</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>武器</t>
+          <t>救援</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>“勇者之剑”、“勇者之枪”等勇者型武器，如由自身发动攻击将可连续攻击2次。</t>
+          <t>救援</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>救援</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22846,29 +23690,21 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SID_邪竜の救済</t>
+          <t>TID_勇者系の武器</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>邪龙的救济</t>
+          <t>武器</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>邪龙的救济</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>贝珥</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>邪龙的救济</t>
-        </is>
-      </c>
+          <t>“勇者之剑”、“勇者之枪”等勇者型武器，如由自身发动攻击将可连续攻击2次。</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22882,21 +23718,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TID_約束の指輪</t>
+          <t>SID_邪竜の救済</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>约定戒指</t>
+          <t>邪龙的救济</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>如想将“约定戒指”交给重要的人，就从我的房间中的柜子取出戒指，直接交给对方吧。</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+          <t>邪龙的救济</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>贝珥</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>邪龙的救济</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22910,25 +23754,21 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TID_マルストリビア01</t>
+          <t>TID_約束の指輪</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>纹章士马尔斯</t>
+          <t>约定戒指</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>异界阿卡奈亚陆地中阿利提亚王国的王子，继承了英雄昂利的血脉。</t>
+          <t>如想将“约定戒指”交给重要的人，就从我的房间中的柜子取出戒指，直接交给对方吧。</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>GID_マルス</t>
-        </is>
-      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
           <t>MCID_*</t>
@@ -22936,13 +23776,13 @@
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>TID_マルストリビア02</t>
+          <t>TID_マルストリビア01</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -22952,7 +23792,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>和伙伴合力打倒暗黑龙，是众人口中的“英雄王”。</t>
+          <t>异界阿卡奈亚陆地中阿利提亚王国的王子，继承了英雄昂利的血脉。</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -22974,23 +23814,23 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TID_シグルドトリビア01</t>
+          <t>TID_マルストリビア02</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>纹章士西格尔特</t>
+          <t>纹章士马尔斯</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>异界尤格多拉尔陆地中格兰贝鲁王国的希亚费公爵家的勋爵。</t>
+          <t>和伙伴合力打倒暗黑龙，是众人口中的“英雄王”。</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>GID_シグルド</t>
+          <t>GID_マルス</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -23006,7 +23846,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>TID_シグルドトリビア02</t>
+          <t>TID_シグルドトリビア01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -23016,7 +23856,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>流有圣战士巴尔德的血脉，是继承传说圣剑的高洁骑士。</t>
+          <t>异界尤格多拉尔陆地中格兰贝鲁王国的希亚费公爵家的勋爵。</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -23038,23 +23878,23 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>TID_セリカトリビア01</t>
+          <t>TID_シグルドトリビア02</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>纹章士赛莉卡</t>
+          <t>纹章士西格尔特</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>异界瓦伦西亚陆地中丰饶之国索菲亚的公主。</t>
+          <t>流有圣战士巴尔德的血脉，是继承传说圣剑的高洁骑士。</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>GID_セリカ</t>
+          <t>GID_シグルド</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -23070,7 +23910,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>TID_セリカトリビア02</t>
+          <t>TID_セリカトリビア01</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -23080,7 +23920,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>是位慈悲为怀的女性，和勇者阿雷武一起对抗危害和平的邪神。</t>
+          <t>异界瓦伦西亚陆地中丰饶之国索菲亚的公主。</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -23102,23 +23942,23 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TID_ミカヤトリビア01</t>
+          <t>TID_セリカトリビア02</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>纹章士米卡雅</t>
+          <t>纹章士赛莉卡</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>在异界堤里乌斯陆地以义贼团成员身分大显身手的女子。</t>
+          <t>是位慈悲为怀的女性，和勇者阿雷武一起对抗危害和平的邪神。</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>GID_ミカヤ</t>
+          <t>GID_セリカ</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -23134,7 +23974,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TID_ミカヤトリビア02</t>
+          <t>TID_ミカヤトリビア01</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -23144,7 +23984,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>是个拥有神秘力量的少女，对抗了欲制裁世界的女神。</t>
+          <t>在异界堤里乌斯陆地以义贼团成员身分大显身手的女子。</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -23166,23 +24006,23 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TID_ロイトリビア01</t>
+          <t>TID_ミカヤトリビア02</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>纹章士罗伊</t>
+          <t>纹章士米卡雅</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>异界埃列布陆地的费雷侯爵家的勋爵，封印之剑的主人。</t>
+          <t>是个拥有神秘力量的少女，对抗了欲制裁世界的女神。</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GID_ロイ</t>
+          <t>GID_ミカヤ</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -23198,7 +24038,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TID_ロイトリビア02</t>
+          <t>TID_ロイトリビア01</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -23208,7 +24048,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>代替卧病在床的父亲，率兵对抗敌国的聪明少年。</t>
+          <t>异界埃列布陆地的费雷侯爵家的勋爵，封印之剑的主人。</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -23230,23 +24070,23 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TID_リントリビア01</t>
+          <t>TID_ロイトリビア02</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>纹章士琳</t>
+          <t>纹章士罗伊</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>来自异界埃列布陆地的草原地带──塞迦地区的女剑士。</t>
+          <t>代替卧病在床的父亲，率兵对抗敌国的聪明少年。</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -23262,7 +24102,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TID_リントリビア02</t>
+          <t>TID_リントリビア01</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -23272,7 +24112,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>不知身上流有侯爵家的血脉，被当成游牧民族养大的少女。</t>
+          <t>来自异界埃列布陆地的草原地带──塞迦地区的女剑士。</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -23294,23 +24134,23 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TID_アイクトリビア01</t>
+          <t>TID_リントリビア02</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>纹章士艾克</t>
+          <t>纹章士琳</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>曾在异界堤里乌斯陆地担任格莱尔佣兵团团长的青年。</t>
+          <t>不知身上流有侯爵家的血脉，被当成游牧民族养大的少女。</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>GID_リン</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -23326,7 +24166,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TID_アイクトリビア02</t>
+          <t>TID_アイクトリビア01</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -23336,7 +24176,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>拥有精湛剑术和真诚的心，从一介佣兵变成了英雄。</t>
+          <t>曾在异界堤里乌斯陆地担任格莱尔佣兵团团长的青年。</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -23358,23 +24198,23 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TID_ルキナトリビア01</t>
+          <t>TID_アイクトリビア02</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>纹章士露琪娜</t>
+          <t>纹章士艾克</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>异界伊里斯圣王国的公主，左眼上有圣痕。</t>
+          <t>拥有精湛剑术和真诚的心，从一介佣兵变成了英雄。</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>GID_ルキナ</t>
+          <t>GID_アイク</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -23390,7 +24230,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TID_ルキナトリビア02</t>
+          <t>TID_ルキナトリビア01</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -23400,7 +24240,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>充满正义感的少女，为了改变绝望的未来而穿越时空战斗。</t>
+          <t>异界伊里斯圣王国的公主，左眼上有圣痕。</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -23422,23 +24262,23 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TID_リーフトリビア01</t>
+          <t>TID_ルキナトリビア02</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>纹章士里弗</t>
+          <t>纹章士露琪娜</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>异界尤格多拉尔陆地中色雷斯地区伦斯特王国的继承人。</t>
+          <t>充满正义感的少女，为了改变绝望的未来而穿越时空战斗。</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>GID_リーフ</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -23454,7 +24294,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TID_リーフトリビア02</t>
+          <t>TID_リーフトリビア01</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -23464,7 +24304,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>为了让色雷斯地区摆脱帝国统治而奋战到底的勇敢王子。</t>
+          <t>异界尤格多拉尔陆地中色雷斯地区伦斯特王国的继承人。</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -23486,23 +24326,23 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>TID_カムイトリビア01</t>
+          <t>TID_リーフトリビア02</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>纹章士神威</t>
+          <t>纹章士里弗</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>异界的王族，生于白夜王国，长于暗夜王国。</t>
+          <t>为了让色雷斯地区摆脱帝国统治而奋战到底的勇敢王子。</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>GID_カムイ</t>
+          <t>GID_リーフ</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -23518,7 +24358,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TID_カムイトリビア02</t>
+          <t>TID_カムイトリビア01</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -23528,7 +24368,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>拥有神祖龙的力量，在互相争战的两个祖国间选择了自己的道路。</t>
+          <t>异界的王族，生于白夜王国，长于暗夜王国。</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -23550,23 +24390,23 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TID_エイリークトリビア01</t>
+          <t>TID_カムイトリビア02</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>纹章士艾莉可</t>
+          <t>纹章士神威</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>异界麦格维尔陆地中继承圣石的路奈斯王国公主。</t>
+          <t>拥有神祖龙的力量，在互相争战的两个祖国间选择了自己的道路。</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -23582,23 +24422,23 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TID_エフラムトリビア02</t>
+          <t>TID_エイリークトリビア01</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>纹章士艾夫拉姆</t>
+          <t>纹章士艾莉可</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>英勇的路奈斯王国王子，和妹妹艾莉可一起对抗魔王。</t>
+          <t>异界麦格维尔陆地中继承圣石的路奈斯王国公主。</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>GID_エフラム</t>
+          <t>GID_エイリーク</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -23614,23 +24454,23 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TID_ベレトトリビア01</t>
+          <t>TID_エフラムトリビア02</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>纹章士贝雷特</t>
+          <t>纹章士艾夫拉姆</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>在异界芙朵拉的加尔古·玛库大修道院中担任教师的青年。</t>
+          <t>英勇的路奈斯王国王子，和妹妹艾莉可一起对抗魔王。</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
+          <t>GID_エフラム</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -23646,7 +24486,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>TID_ベレトトリビア02</t>
+          <t>TID_ベレトトリビア01</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -23656,7 +24496,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>曾是佣兵，后成为教师，引领学生挺过战乱时代。</t>
+          <t>在异界芙朵拉的加尔古·玛库大修道院中担任教师的青年。</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -23678,53 +24518,49 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
+          <t>TID_ベレトトリビア02</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
+          <t>纹章士贝雷特</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>GID_チキ</t>
-        </is>
-      </c>
+          <t>曾是佣兵，后成为教师，引领学生挺过战乱时代。</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SID_光玉の加護</t>
+          <t>SID_チキエンゲージ技</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SID_光玉の加護</t>
+          <t>神龙的祝福</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SID_光玉の加護</t>
+          <t>神龙的祝福</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -23734,12 +24570,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SID_光玉の加護</t>
+          <t>神龙的祝福</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -23750,17 +24586,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SID_星玉の加護</t>
+          <t>SID_光玉の加護</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SID_星玉の加護</t>
+          <t>光玉加护</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SID_星玉の加護</t>
+          <t>光玉加护</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -23770,12 +24606,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SID_星玉の加護</t>
+          <t>光玉加护</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -23786,17 +24622,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SID_命玉の加護</t>
+          <t>SID_星玉の加護</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SID_命玉の加護</t>
+          <t>星玉加护</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SID_命玉の加護</t>
+          <t>星玉加护</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -23806,12 +24642,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SID_命玉の加護</t>
+          <t>星玉加护</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -23822,17 +24658,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SID_地玉の加護</t>
+          <t>SID_命玉の加護</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SID_地玉の加護</t>
+          <t>命玉加护</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SID_地玉の加護</t>
+          <t>命玉加护</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -23842,12 +24678,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SID_地玉の加護</t>
+          <t>命玉加护</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -23858,17 +24694,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ</t>
+          <t>SID_地玉の加護</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ</t>
+          <t>地玉加护</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ</t>
+          <t>地玉加护</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -23878,12 +24714,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ</t>
+          <t>地玉加护</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -23894,17 +24730,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SID_竜化</t>
+          <t>IID_チキ_つめ</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SID_竜化</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>SID_竜化</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -23914,12 +24750,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SID_竜化</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -23930,28 +24766,32 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TID_幻影飛竜</t>
+          <t>SID_竜化</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MJID_PhantomFlyingDragon</t>
+          <t>龙化</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MJID_H_PhantomFlyingDragon</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>龙化</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PID_TIPS用_幻影飛竜</t>
+          <t>龙化</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -23962,32 +24802,29 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>TID_幻影飛竜</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>幻影飞龙</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>GID_エーデルガルト</t>
-        </is>
-      </c>
+          <t>在天空翱翔的飞龙之眷属。
+活动范围广，能以吐息将敌人逼入绝境。</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -23998,17 +24835,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>TID_切磋琢磨</t>
+          <t>SID_三級長エンゲージ技</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MSID_FriendlyCompetition</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MID_TIPS_SKILL_30</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -24018,12 +24855,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SID_切磋琢磨</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -24034,17 +24871,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SID_計略</t>
+          <t>TID_切磋琢磨</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SID_計略</t>
+          <t>切磋琢磨</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SID_計略</t>
+          <t>“三鼎纹章士”会在我军行动阶段开始时，从三位纹章士中随机派一位上场。</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -24054,12 +24891,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SID_計略</t>
+          <t>切磋琢磨</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -24070,17 +24907,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SID_計略_引込の計</t>
+          <t>SID_計略</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SID_計略_引込の計</t>
+          <t>计策</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SID_計略_引込の計</t>
+          <t>计策</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -24090,12 +24927,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SID_計略_引込の計</t>
+          <t>计策</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -24106,17 +24943,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SID_計略_猛火計</t>
+          <t>SID_計略_引込の計</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SID_計略_猛火計</t>
+          <t>计策：引诱之计</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SID_計略_猛火計</t>
+          <t>计策：引诱之计</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -24126,12 +24963,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SID_計略_猛火計</t>
+          <t>计策：引诱之计</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -24142,32 +24979,32 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SID_計略_聖盾の備え</t>
+          <t>SID_計略_猛火計</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SID_計略_聖盾の備え</t>
+          <t>计策：猛火计</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SID_計略_聖盾の備え</t>
+          <t>计策：猛火计</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>GID_ディミトリ</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SID_計略_聖盾の備え</t>
+          <t>计策：猛火计</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -24178,32 +25015,32 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SID_計略_毒矢</t>
+          <t>SID_計略_聖盾の備え</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SID_計略_毒矢</t>
+          <t>计策：圣盾态势</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SID_計略_毒矢</t>
+          <t>计策：圣盾态势</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>GID_クロード</t>
+          <t>GID_ディミトリ</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SID_計略_毒矢</t>
+          <t>计策：圣盾态势</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -24214,32 +25051,32 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TID_武器シンクロ</t>
+          <t>SID_計略_毒矢</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MSID_WeaponSynchronized</t>
+          <t>计策：毒箭</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MID_TIPS_SKILL_31</t>
+          <t>计策：毒箭</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>GID_エーデルガルト</t>
+          <t>GID_クロード</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SID_武器シンクロ</t>
+          <t>计策：毒箭</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -24250,17 +25087,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>IID_三級長_アイムール</t>
+          <t>TID_武器シンクロ</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>IID_三級長_アイムール</t>
+          <t>武器同步</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>IID_三級長_アイムール</t>
+          <t>自身发动攻击时，若与同步的纹章士装备同种武器，或是处于结合状态将可提升伤害。</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -24270,12 +25107,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>IID_三級長_アイムール</t>
+          <t>武器同步</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
@@ -24286,17 +25123,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>IID_三級長_アラドヴァル</t>
+          <t>IID_三級長_アイムール</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>IID_三級長_アラドヴァル</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>IID_三級長_アラドヴァル</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -24306,12 +25143,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>IID_三級長_アラドヴァル</t>
+          <t>艾姆鲁</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -24322,17 +25159,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>IID_三級長_フェイルノート</t>
+          <t>IID_三級長_アラドヴァル</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>IID_三級長_フェイルノート</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>IID_三級長_フェイルノート</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -24342,12 +25179,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>IID_三級長_フェイルノート</t>
+          <t>阿莱德巴尔</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -24358,17 +25195,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SID_血統</t>
+          <t>IID_三級長_フェイルノート</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SID_血統</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>SID_血統</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -24378,12 +25215,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SID_血統</t>
+          <t>费鲁诺特</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -24394,17 +25231,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TID_戦技</t>
+          <t>SID_血統</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MSID_ClassPresidentsEngage</t>
+          <t>血统</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MID_TIPS_SKILL_33</t>
+          <t>血统</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -24414,12 +25251,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SID_戦技</t>
+          <t>血统</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -24430,17 +25267,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TID_戦技_狂嵐</t>
+          <t>TID_戦技</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MSID_ClassPresidentsEngage_MadStorm</t>
+          <t>战技</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MSID_H_ClassPresidentsEngage_MadStorm_CMD</t>
+          <t>消耗结合状态的持续回合数，即可使用其中一位“三鼎纹章士”的战技。</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -24450,12 +25287,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SID_戦技_狂嵐</t>
+          <t>战技</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -24466,17 +25303,18 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TID_戦技_無残</t>
+          <t>TID_戦技_狂嵐</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MSID_ClassPresidentsEngage_Miserable</t>
+          <t>狂风</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MSID_H_ClassPresidentsEngage_Miserable_CMD</t>
+          <t>战斗后可再次行动。
+（消耗3回合）</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -24486,12 +25324,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SID_戦技_無残</t>
+          <t>狂风</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -24502,17 +25340,18 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TID_戦技_落星</t>
+          <t>TID_戦技_無残</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MSID_ClassPresidentsEngage_FallingStarts</t>
+          <t>无惨</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MSID_H_ClassPresidentsEngage_FallingStarts_CMD</t>
+          <t>攻击时武器威力增为2倍。
+（消耗1回合）</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -24522,12 +25361,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>SID_戦技_落星</t>
+          <t>无惨</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -24538,24 +25377,33 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TID_戦技_補足</t>
+          <t>TID_戦技_落星</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>基础知识</t>
+          <t>落星</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MID_TIPS_SKILL_39</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+          <t>必定回避下次受到的攻击。
+（消耗1回合）</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>落星</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -24566,28 +25414,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>IID_シルバーカード</t>
+          <t>TID_戦技_補足</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>IID_シルバーカード</t>
+          <t>基础知识</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>IID_シルバーカード</t>
+          <t>即使结合持续回合数因特技“战技”归零，该回合也不会解除结合状态。</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>IID_シルバーカード</t>
-        </is>
-      </c>
+      <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -24598,160 +25442,1173 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TID_チキトリビア01</t>
+          <t>IID_シルバーカード</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MID_TUT_TIPS_Tiki</t>
+          <t>银卡</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MID_TIPS_GOD_24</t>
+          <t>银卡</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>GID_チキ</t>
+          <t>银卡</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TID_チキトリビア02</t>
+          <t>SID_ヘクトルエンゲージ技</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MID_TUT_TIPS_Tiki</t>
+          <t>止水雷轰架势</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MID_TIPS_GOD_25</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>止水雷轰架势</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>GID_チキ</t>
+          <t>止水雷轰架势</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TID_エーデルガルトトリビア01</t>
+          <t>SID_切り返し</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MID_TUT_TIPS_Edelgard</t>
+          <t>回击</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MID_TIPS_GOD_26</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
+          <t>回击</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>GID_エーデルガルト</t>
+          <t>回击</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TID_ディミトリトリビア01</t>
+          <t>SID_重撃</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MID_TUT_TIPS_Dimitri</t>
+          <t>重击</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MID_TIPS_GOD_27</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>重击</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>GID_ディミトリ</t>
+          <t>重击</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TID_クロードトリビア01</t>
+          <t>SID_角の睨み</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MID_TUT_TIPS_Claude</t>
+          <t>角之瞪视</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MID_TIPS_GOD_28</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>角之瞪视</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>GID_クロード</t>
+          <t>角之瞪视</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>SID_適応能力</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>适应力</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>适应力</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>适应力</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>IID_ヘクトル_ヴォルフバイル</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>沃夫拜尔</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>沃夫拜尔</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>沃夫拜尔</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>SID_鉄壁</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>铁壁</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>铁壁</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>铁壁</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SID_セネリオエンゲージ技</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>灾厄</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>灾厄</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>灾厄</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>TID_理魔法＋</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>理之精髓</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>使用炎、雷或风魔法攻击时，将根据魔法种类降低对手的能力值，效果持续1回合。</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>理之精髓</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>SID_慧眼</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>慧眼</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>慧眼</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>慧眼</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>SID_囮指名</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>指名诱饵</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>指名诱饵</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>指名诱饵</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>TID_復帰阻止</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>阻止复原</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>使用魔法攻击陷入打破状态的敌人时，有一定机率让敌人继续维持打破状态。</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>阻止复原</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>IID_セネリオ_サンダーストーム</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>雷暴</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>雷暴</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>雷暴</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>SID_陽光</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>阳光</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>阳光</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>阳光</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>TID_エンチャント</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>附魔师</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>灵活运用道具作战的军医。
+除了能使用运输队，还擅长以战术支援伙伴。</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>费列聂兵</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>SID_カミラエンゲージ技</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>暗夜爆破阵</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>暗夜爆破阵</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>暗夜爆破阵</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>SID_竜脈・異</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>龙脉·暗</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>龙脉·暗</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>龙脉·暗</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>SID_地脈吸収</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>地脉吸收</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>地脉吸收</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>地脉吸收</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>SID_デトックス</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>解毒</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>解毒</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>解毒</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>SID_後始末</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>乘胜追击</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>乘胜追击</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>乘胜追击</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>IID_カミラ_ボルトアクス</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>闪雷斧</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>闪雷斧</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>闪雷斧</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>SID_天駆</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>天驱</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>天驱</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>天驱</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>TID_チキトリビア01</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>纹章士琪姬</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>自远古时期就住在异界阿卡奈亚陆地的神龙族公主。</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>TID_チキトリビア02</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>纹章士琪姬</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>能幻化成人形的“龙族”少女，将马尔斯当成“哥哥”景仰。</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>TID_エーデルガルトトリビア01</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>纹章士艾黛尔贾特</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>异界之地芙朵拉中阿德剌斯忒亚帝国的皇女，是位善于用斧的高贵女性。</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>TID_ディミトリトリビア01</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>纹章士帝弥托利</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>异界之地芙朵拉中法嘉斯神圣王国的王子，是位善于用枪的聪明青年。</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>TID_クロードトリビア01</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>纹章士库罗德</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>异界之地芙朵拉中雷斯塔诸侯同盟的盟主嫡子，是位善于用弓的洒脱青年。</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>TID_ヘクトルリビア01</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>异界埃列布陆地中奥斯提亚侯爵家的侯爵之弟，是位力大无穷的用斧能手。</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>TID_ヘクトルリビア02</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>罗伊之父艾利乌德的挚友。曾手持“天雷之斧阿尔玛兹”，与艾利乌德一同对抗魔头。</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>GID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>TID_セネリオトリビア01</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>纹章士塞涅里欧</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>在异界堤里乌斯陆地的格莱尔佣兵团担任参谋的青年。</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>TID_セネリオトリビア02</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>纹章士塞涅里欧</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>隶属艾克的佣兵团，是位军师才能卓越的贤者。</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>GID_セネリオ</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>TID_カミラトリビア01</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>纹章士卡美拉</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>异界暗夜王国的第一公主，是位美艳的魔龙骑士。</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>TID_カミラトリビア02</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>纹章士卡美拉</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>神威的手足。非常重视伙伴，对敌人则冷酷无情。</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="n">
         <v>2</v>
       </c>
     </row>
